--- a/DIC/Lab2/Task5/N=1/task5_N1.xlsx
+++ b/DIC/Lab2/Task5/N=1/task5_N1.xlsx
@@ -467,16 +467,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.694e-10</v>
+        <v>2.697e-10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.481e-10</v>
+        <v>1.488e-10</v>
       </c>
       <c r="C2" t="n">
-        <v>2.088e-10</v>
+        <v>2.093e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.088e-10</v>
+        <v>2.093e-10</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
